--- a/data/in/eu_goals_men.xlsx
+++ b/data/in/eu_goals_men.xlsx
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="s">
         <v>776</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" t="s">
         <v>779</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112" t="s">
         <v>794</v>
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="U165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V165" t="s">
         <v>804</v>
@@ -16482,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="U182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V182" t="s">
         <v>808</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V198" t="s">
         <v>808</v>
@@ -19942,7 +19942,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V232" t="s">
         <v>815</v>
@@ -23160,7 +23160,7 @@
         <v>5</v>
       </c>
       <c r="U278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V278" t="s">
         <v>824</v>
@@ -23302,7 +23302,7 @@
         <v>4</v>
       </c>
       <c r="U280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V280" t="s">
         <v>824</v>
@@ -23645,7 +23645,7 @@
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V285" t="s">
         <v>818</v>
@@ -25739,7 +25739,7 @@
         <v>1</v>
       </c>
       <c r="U315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V315" t="s">
         <v>827</v>
@@ -25810,7 +25810,7 @@
         <v>2</v>
       </c>
       <c r="U316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V316" t="s">
         <v>827</v>
@@ -26366,7 +26366,7 @@
         <v>4</v>
       </c>
       <c r="U324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V324" t="s">
         <v>830</v>
@@ -26508,7 +26508,7 @@
         <v>3</v>
       </c>
       <c r="U326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V326" t="s">
         <v>831</v>
@@ -27685,7 +27685,7 @@
         <v>1</v>
       </c>
       <c r="U343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V343" t="s">
         <v>834</v>
@@ -27756,7 +27756,7 @@
         <v>3</v>
       </c>
       <c r="U344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V344" t="s">
         <v>834</v>
@@ -29584,7 +29584,7 @@
         <v>1</v>
       </c>
       <c r="U370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V370" t="s">
         <v>837</v>
@@ -29856,7 +29856,7 @@
         <v>2</v>
       </c>
       <c r="U374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V374" t="s">
         <v>838</v>
@@ -30140,7 +30140,7 @@
         <v>4</v>
       </c>
       <c r="U378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V378" t="s">
         <v>839</v>
@@ -33346,7 +33346,7 @@
         <v>3</v>
       </c>
       <c r="U424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V424" t="s">
         <v>850</v>
@@ -33695,7 +33695,7 @@
         <v>1</v>
       </c>
       <c r="U429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V429" t="s">
         <v>851</v>
@@ -33908,7 +33908,7 @@
         <v>2</v>
       </c>
       <c r="U432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V432" t="s">
         <v>851</v>
@@ -35097,7 +35097,7 @@
         <v>3</v>
       </c>
       <c r="U449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V449" t="s">
         <v>854</v>
@@ -36274,7 +36274,7 @@
         <v>2</v>
       </c>
       <c r="U466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V466" t="s">
         <v>857</v>
@@ -37043,7 +37043,7 @@
         <v>1</v>
       </c>
       <c r="U477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V477" t="s">
         <v>859</v>
@@ -37534,7 +37534,7 @@
         <v>2</v>
       </c>
       <c r="U484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V484" t="s">
         <v>860</v>
@@ -39214,7 +39214,7 @@
         <v>0</v>
       </c>
       <c r="U508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V508" t="s">
         <v>866</v>
@@ -43355,7 +43355,7 @@
         <v>0</v>
       </c>
       <c r="U567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V567" t="s">
         <v>877</v>
@@ -44615,7 +44615,7 @@
         <v>1</v>
       </c>
       <c r="U585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V585" t="s">
         <v>880</v>
@@ -45384,7 +45384,7 @@
         <v>1</v>
       </c>
       <c r="U596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V596" t="s">
         <v>883</v>
@@ -45780,7 +45780,7 @@
         <v>2</v>
       </c>
       <c r="U602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V602" t="s">
         <v>886</v>
@@ -46833,7 +46833,7 @@
         <v>0</v>
       </c>
       <c r="U617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V617" t="s">
         <v>890</v>
@@ -46904,7 +46904,7 @@
         <v>6</v>
       </c>
       <c r="U618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V618" t="s">
         <v>890</v>
@@ -47590,7 +47590,7 @@
         <v>2</v>
       </c>
       <c r="U628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V628" t="s">
         <v>889</v>
@@ -47945,7 +47945,7 @@
         <v>2</v>
       </c>
       <c r="U633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V633" t="s">
         <v>892</v>
@@ -48702,7 +48702,7 @@
         <v>2</v>
       </c>
       <c r="U644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V644" t="s">
         <v>894</v>
@@ -48974,7 +48974,7 @@
         <v>6</v>
       </c>
       <c r="U648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V648" t="s">
         <v>892</v>
@@ -50979,7 +50979,7 @@
         <v>3</v>
       </c>
       <c r="U677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V677" t="s">
         <v>896</v>
@@ -52428,7 +52428,7 @@
         <v>4</v>
       </c>
       <c r="U698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V698" t="s">
         <v>899</v>
@@ -54179,7 +54179,7 @@
         <v>1</v>
       </c>
       <c r="U723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V723" t="s">
         <v>902</v>
@@ -54321,7 +54321,7 @@
         <v>1</v>
       </c>
       <c r="U725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V725" t="s">
         <v>903</v>
@@ -56841,7 +56841,7 @@
         <v>5</v>
       </c>
       <c r="U761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V761" t="s">
         <v>913</v>
@@ -62626,7 +62626,7 @@
         <v>4</v>
       </c>
       <c r="U844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V844" t="s">
         <v>922</v>
@@ -63046,7 +63046,7 @@
         <v>2</v>
       </c>
       <c r="U850">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V850" t="s">
         <v>923</v>
@@ -64667,7 +64667,7 @@
         <v>4</v>
       </c>
       <c r="U873">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V873" t="s">
         <v>924</v>
@@ -65436,7 +65436,7 @@
         <v>2</v>
       </c>
       <c r="U884">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V884" t="s">
         <v>926</v>
@@ -66217,7 +66217,7 @@
         <v>0</v>
       </c>
       <c r="U895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V895" t="s">
         <v>926</v>
@@ -68406,7 +68406,7 @@
         <v>3</v>
       </c>
       <c r="U926">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V926" t="s">
         <v>933</v>
@@ -68761,7 +68761,7 @@
         <v>3</v>
       </c>
       <c r="U931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V931" t="s">
         <v>934</v>
@@ -69252,7 +69252,7 @@
         <v>2</v>
       </c>
       <c r="U938">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V938" t="s">
         <v>936</v>
@@ -69388,7 +69388,7 @@
         <v>10</v>
       </c>
       <c r="U940">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V940" t="s">
         <v>936</v>
@@ -70163,7 +70163,7 @@
         <v>5</v>
       </c>
       <c r="U951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V951" t="s">
         <v>935</v>
@@ -70577,7 +70577,7 @@
         <v>8</v>
       </c>
       <c r="U957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V957" t="s">
         <v>938</v>
@@ -70997,7 +70997,7 @@
         <v>5</v>
       </c>
       <c r="U963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V963" t="s">
         <v>937</v>
@@ -73978,7 +73978,7 @@
         <v>7</v>
       </c>
       <c r="U1006">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1006" t="s">
         <v>945</v>
@@ -74191,7 +74191,7 @@
         <v>2</v>
       </c>
       <c r="U1009">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1009" t="s">
         <v>945</v>
@@ -75102,7 +75102,7 @@
         <v>4</v>
       </c>
       <c r="U1022">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1022" t="s">
         <v>944</v>
@@ -75587,7 +75587,7 @@
         <v>5</v>
       </c>
       <c r="U1029">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1029" t="s">
         <v>947</v>
@@ -76628,7 +76628,7 @@
         <v>3</v>
       </c>
       <c r="U1044">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1044" t="s">
         <v>949</v>
@@ -77965,7 +77965,7 @@
         <v>0</v>
       </c>
       <c r="U1063">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1063" t="s">
         <v>953</v>
